--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/原始需求输入/因卓教育阶段二功能点.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/原始需求输入/因卓教育阶段二功能点.xlsx
@@ -14,16 +14,17 @@
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="卓师（老师端）" sheetId="2" r:id="rId2"/>
-    <sheet name="卓学（学生端）" sheetId="7" r:id="rId3"/>
-    <sheet name="因卓后台" sheetId="5" r:id="rId4"/>
-    <sheet name="整体功能点" sheetId="6" r:id="rId5"/>
+    <sheet name="卓师（Windows服务） " sheetId="9" r:id="rId3"/>
+    <sheet name="卓学（学生端）" sheetId="7" r:id="rId4"/>
+    <sheet name="因卓后台" sheetId="5" r:id="rId5"/>
+    <sheet name="整体功能点" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="218">
   <si>
     <t>程序员客栈 — 因卓教育</t>
   </si>
@@ -37,18 +38,12 @@
     <t>系统</t>
   </si>
   <si>
-    <t>卓师（老师端）</t>
-  </si>
-  <si>
     <t>手机APP+PC</t>
   </si>
   <si>
     <t>IOS、安卓、Web网页版</t>
   </si>
   <si>
-    <t>卓学（学生端）</t>
-  </si>
-  <si>
     <t>手机APP</t>
   </si>
   <si>
@@ -61,9 +56,6 @@
     <t>Web网页版</t>
   </si>
   <si>
-    <t>因卓后台（题库系统、学情系统等）</t>
-  </si>
-  <si>
     <t>版本变更</t>
   </si>
   <si>
@@ -73,9 +65,6 @@
     <t>内容</t>
   </si>
   <si>
-    <t>因卓教育 — 教师端功能</t>
-  </si>
-  <si>
     <t>一级功能点</t>
   </si>
   <si>
@@ -248,15 +237,6 @@
   </si>
   <si>
     <t>答题卡扫描</t>
-  </si>
-  <si>
-    <t>答题卡二维码识别并匹配对应的考试库</t>
-  </si>
-  <si>
-    <t>条形码识别并匹配对应的学员信息</t>
-  </si>
-  <si>
-    <t>答题卡区域切割，并推送给对应的教师批改列表</t>
   </si>
   <si>
     <t>推送设置</t>
@@ -513,7 +493,171 @@
     <t>模块</t>
   </si>
   <si>
-    <t>因卓教育阶段二功能</t>
+    <t>绿色填充的功能只在PC Web端需要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因卓后台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓学</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对不同的模块进行使用人数统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新上传套题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级详情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合学情统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期考试列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期作业列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级内教师信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级内学生信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师详情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生详情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生综合学情统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示班级内所有教师（班主任和任课教师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示教师的详细信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示班级内所有学生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示学生的详细信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示学生的综合学情统计，比如总得分率，作业得分率，考试得分率等</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生近期作业列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生近期考试列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示近期作业列表信息，比如得分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示近期考试信息，得分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级内学生的统合学情统计，比如得分率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级内学生的近期考试列表信息，比如平均分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级内学生的近期作业列表信息，比如平均分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的班级/其他班级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按科目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示最新上传的套题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的科目展示上传的套题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送试卷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送试卷给指定的学生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送考试信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送考试信息给指定的学生，通知学生参加考试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因卓教育阶段二功能V1.0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因卓教育阶段二功能V1.1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -521,7 +665,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>绿色填充的功能只在PC Web端需要</t>
+    <t>PC 服务应用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓师（Windows服务）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓学</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -529,23 +689,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>卓学</t>
+    <t>连接扫描仪</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>卓师</t>
+    <t>因卓教育 — 教师端功能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
+    <t>因卓教育 — 教师端Windows服务</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>模块使用</t>
+    <t>识别条形码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>针对不同的模块进行使用人数统计</t>
+    <t>识别答题卡二维码识</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题卡区域切割</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别客观题选项</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回异常答题卡信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题卡试扫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据客户内部的讨论添加首页功能点，增加卓师端Windows服务，用于处理答题卡的扫描和识别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理异常答题卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行扫描仪的配置和连接</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>试扫答题卡（考试前和阅卷前），检测打印的答题卡是否可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理异常的答题卡，进行人工确认</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +852,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -799,13 +1001,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +1205,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,24 +1247,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -983,22 +1334,31 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2125,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2147,11 +2507,11 @@
     </row>
     <row r="2" spans="1:256" s="16" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="18"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2419,97 +2779,360 @@
     </row>
     <row r="4" spans="1:256" ht="28.05" customHeight="1">
       <c r="B4" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:256" s="22" customFormat="1" ht="28.05" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1"/>
+      <c r="FE5" s="1"/>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1"/>
+      <c r="FH5" s="1"/>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1"/>
+      <c r="FK5" s="1"/>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1"/>
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="1"/>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
+      <c r="IU5" s="1"/>
+      <c r="IV5" s="1"/>
+    </row>
+    <row r="6" spans="1:256" ht="26.1" customHeight="1">
+      <c r="B6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:256" ht="26.1" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:256" ht="27" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:256" ht="27" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:256" ht="26.1" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:256" ht="16.05" customHeight="1">
+    <row r="8" spans="1:256" ht="26.1" customHeight="1">
       <c r="A8" s="17"/>
+      <c r="B8" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:256" ht="16.05" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="13" spans="1:256" ht="13.5" customHeight="1">
       <c r="B13" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="13.5" customHeight="1">
-      <c r="B14" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="B14" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="42">
         <v>20170717</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:256" ht="13.5" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="21"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="43.2">
+      <c r="B15" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="42">
+        <v>20170719</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="1:256" ht="13.5" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
-    <row r="17" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2522,11 +3145,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU98"/>
+  <dimension ref="A1:IU105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2542,1096 +3165,1209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="A1" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A3" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="68"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A12" s="68"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4">
+      <c r="A15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B15" s="62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4">
-      <c r="A3" s="50" t="s">
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4">
+      <c r="A16" s="57"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.6">
+      <c r="A17" s="57"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.6">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="14.4">
+      <c r="A18" s="57"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="55.2">
+      <c r="A19" s="57"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="55.2">
+      <c r="A20" s="57"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="55.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="14.4">
+      <c r="A21" s="57"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="55.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="5" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="14.4">
+      <c r="A22" s="57"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="5" t="s">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4">
+      <c r="A23" s="57"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.4">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:6" ht="27.6">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="27.6">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="5" t="s">
+    <row r="24" spans="1:6" ht="14.4">
+      <c r="A24" s="57"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.4">
+      <c r="A25" s="57"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4">
+      <c r="A26" s="57"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.4">
+      <c r="A27" s="57"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4">
+      <c r="A28" s="57"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="62"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4">
+      <c r="A29" s="57"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="62"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.4">
+      <c r="A30" s="57"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.4">
+      <c r="A31" s="57"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4">
+      <c r="A32" s="57"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.4">
+      <c r="A33" s="57"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.4">
+      <c r="A34" s="57"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:6" ht="27.6">
+      <c r="A35" s="57"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="27.6">
+      <c r="A36" s="57"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.4">
+      <c r="A37" s="57"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.4">
+      <c r="A38" s="57"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="27.6">
+      <c r="A39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="82.8">
+      <c r="A40" s="58"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.4">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.4">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="27.6">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="14.4">
+      <c r="A41" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="82.8">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="5" t="s">
+      <c r="B41" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="C41" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" spans="1:6" ht="27.6">
+      <c r="A42" s="60"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.4">
+      <c r="A43" s="60"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.4">
+      <c r="A44" s="60"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4">
+      <c r="A45" s="60"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4">
+      <c r="A46" s="60"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4">
+      <c r="A47" s="61"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+    </row>
+    <row r="48" spans="1:6" ht="41.4">
+      <c r="A48" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="B48" s="62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="27.6">
-      <c r="A29" s="50" t="s">
+      <c r="C48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="27.6">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="14.4">
+      <c r="A49" s="57"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="48"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4">
+      <c r="A50" s="57"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4">
+      <c r="A51" s="57"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="41.4">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="6" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="41.4">
-      <c r="A32" s="50" t="s">
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" ht="27.6">
+      <c r="A52" s="58"/>
+      <c r="B52" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.4">
+      <c r="A53" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="6" t="s">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.4">
+      <c r="A54" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="27.6">
-      <c r="A34" s="50"/>
-      <c r="B34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.4">
-      <c r="A35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.4">
-      <c r="A36" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.4">
-      <c r="A37" s="51"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.4">
-      <c r="A38" s="51"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.4">
-      <c r="A39" s="51"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.4">
-      <c r="A40" s="51"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.4">
-      <c r="A41" s="51"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.4">
-      <c r="A42" s="51"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.4">
-      <c r="A43" s="51"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.4">
-      <c r="A44" s="51"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.4">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.4">
-      <c r="A46" s="51"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.4">
-      <c r="A47" s="51"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.4">
-      <c r="A48" s="51"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.4">
-      <c r="A49" s="51"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.4">
-      <c r="A50" s="51"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.4">
-      <c r="A51" s="51"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.4">
-      <c r="A52" s="51"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.4">
-      <c r="A53" s="51"/>
-      <c r="B53" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.4">
-      <c r="A54" s="51"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="25"/>
       <c r="E54" s="11" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="51"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="26"/>
+    <row r="55" spans="1:6" ht="14.4">
+      <c r="A55" s="65"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="25"/>
       <c r="E55" s="11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="26"/>
+    <row r="56" spans="1:6" ht="14.4">
+      <c r="A56" s="65"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="25"/>
       <c r="E56" s="11" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F56" s="25"/>
     </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="51"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="26"/>
+    <row r="57" spans="1:6" ht="14.4">
+      <c r="A57" s="65"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="25"/>
       <c r="E57" s="11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F57" s="25"/>
     </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="26"/>
+    <row r="58" spans="1:6" ht="14.4">
+      <c r="A58" s="65"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="25"/>
       <c r="E58" s="11" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F58" s="25"/>
     </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="26"/>
+    <row r="59" spans="1:6" ht="14.4">
+      <c r="A59" s="65"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="25"/>
       <c r="E59" s="11" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F59" s="25"/>
     </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A60" s="51"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="26"/>
+    <row r="60" spans="1:6" ht="14.4">
+      <c r="A60" s="65"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="25"/>
       <c r="E60" s="11" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="26"/>
+    <row r="61" spans="1:6" ht="14.4">
+      <c r="A61" s="65"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="25"/>
       <c r="E61" s="11" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A62" s="51"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="26"/>
+    <row r="62" spans="1:6" ht="14.4">
+      <c r="A62" s="65"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="25"/>
       <c r="E62" s="11" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A63" s="51"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="26"/>
+    <row r="63" spans="1:6" ht="14.4">
+      <c r="A63" s="65"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="25"/>
       <c r="E63" s="11" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="26"/>
+    <row r="64" spans="1:6" ht="14.4">
+      <c r="A64" s="65"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="25"/>
       <c r="E64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="26"/>
+        <v>95</v>
+      </c>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.4">
+      <c r="A65" s="65"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="25"/>
       <c r="E65" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="66" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.4">
+      <c r="A66" s="65"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="25"/>
       <c r="E66" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="49"/>
-    </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A67" s="51"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.4">
+      <c r="A67" s="65"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="25"/>
       <c r="E67" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="49"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A68" s="51"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.4">
+      <c r="A68" s="65"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="25"/>
       <c r="E68" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="49"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A69" s="51"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.4">
+      <c r="A69" s="65"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="25"/>
       <c r="E69" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="49"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A70" s="51"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.4">
+      <c r="A70" s="65"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="25"/>
       <c r="E70" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="49"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="49"/>
+        <v>101</v>
+      </c>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.4">
+      <c r="A71" s="65"/>
+      <c r="B71" s="70" t="s">
+        <v>102</v>
+      </c>
       <c r="C71" s="26"/>
       <c r="D71" s="25"/>
       <c r="E71" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F71" s="49"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A72" s="51"/>
-      <c r="B72" s="49"/>
+        <v>103</v>
+      </c>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.4">
+      <c r="A72" s="65"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="26"/>
       <c r="D72" s="25"/>
       <c r="E72" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F72" s="49"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A73" s="51"/>
-      <c r="B73" s="49"/>
+        <v>104</v>
+      </c>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="65"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="26"/>
       <c r="D73" s="25"/>
       <c r="E73" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" s="49"/>
+        <v>105</v>
+      </c>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A74" s="51"/>
-      <c r="B74" s="49"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="26"/>
       <c r="D74" s="25"/>
       <c r="E74" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="49"/>
+        <v>106</v>
+      </c>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="49"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="26"/>
       <c r="D75" s="25"/>
       <c r="E75" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="49"/>
+        <v>107</v>
+      </c>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A76" s="51"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="26"/>
       <c r="D76" s="25"/>
       <c r="E76" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="49"/>
+        <v>108</v>
+      </c>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="49"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="26"/>
       <c r="D77" s="25"/>
       <c r="E77" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="49" t="s">
-        <v>109</v>
-      </c>
+      <c r="A78" s="65"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="26"/>
       <c r="D78" s="25"/>
       <c r="E78" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="49"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="26"/>
       <c r="D79" s="25"/>
       <c r="E79" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F79" s="49"/>
+      <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="26"/>
       <c r="D80" s="25"/>
       <c r="E80" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F80" s="49"/>
+      <c r="F80" s="25"/>
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="26"/>
       <c r="D81" s="25"/>
       <c r="E81" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F81" s="49"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="26"/>
       <c r="D82" s="25"/>
       <c r="E82" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F82" s="49"/>
+      <c r="F82" s="70" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A83" s="51"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="26"/>
       <c r="D83" s="25"/>
       <c r="E83" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="49"/>
+        <v>116</v>
+      </c>
+      <c r="F83" s="70"/>
     </row>
     <row r="84" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="26"/>
       <c r="D84" s="25"/>
       <c r="E84" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="49"/>
+        <v>104</v>
+      </c>
+      <c r="F84" s="70"/>
     </row>
     <row r="85" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A85" s="51"/>
-      <c r="B85" s="49"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="26"/>
       <c r="D85" s="25"/>
       <c r="E85" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F85" s="49"/>
+      <c r="F85" s="70"/>
     </row>
     <row r="86" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A86" s="51"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="26"/>
       <c r="D86" s="25"/>
       <c r="E86" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F86" s="49"/>
+        <v>104</v>
+      </c>
+      <c r="F86" s="70"/>
     </row>
     <row r="87" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="26"/>
       <c r="D87" s="25"/>
       <c r="E87" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="49"/>
+        <v>105</v>
+      </c>
+      <c r="F87" s="70"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="49"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="26"/>
       <c r="D88" s="25"/>
       <c r="E88" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F88" s="49"/>
+        <v>106</v>
+      </c>
+      <c r="F88" s="70"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A89" s="51"/>
-      <c r="B89" s="49" t="s">
-        <v>125</v>
-      </c>
+      <c r="A89" s="65"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="26"/>
       <c r="D89" s="25"/>
       <c r="E89" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F89" s="49"/>
+        <v>107</v>
+      </c>
+      <c r="F89" s="70"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A90" s="51"/>
-      <c r="B90" s="49"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="26"/>
       <c r="D90" s="25"/>
       <c r="E90" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="49"/>
+        <v>108</v>
+      </c>
+      <c r="F90" s="70"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A91" s="51"/>
-      <c r="B91" s="49"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="26"/>
       <c r="D91" s="25"/>
       <c r="E91" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="F91" s="70"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A92" s="51"/>
-      <c r="B92" s="49"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="26"/>
       <c r="D92" s="25"/>
       <c r="E92" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" s="49"/>
+        <v>110</v>
+      </c>
+      <c r="F92" s="70"/>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A93" s="51"/>
-      <c r="B93" s="49"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="26"/>
       <c r="D93" s="25"/>
       <c r="E93" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="49"/>
+        <v>111</v>
+      </c>
+      <c r="F93" s="70"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A94" s="51"/>
-      <c r="B94" s="49"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="26"/>
       <c r="D94" s="25"/>
       <c r="E94" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F94" s="49"/>
+        <v>112</v>
+      </c>
+      <c r="F94" s="70"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="26"/>
       <c r="D95" s="25"/>
       <c r="E95" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="49"/>
+        <v>113</v>
+      </c>
+      <c r="F95" s="70"/>
     </row>
     <row r="96" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="70" t="s">
+        <v>118</v>
+      </c>
       <c r="C96" s="26"/>
       <c r="D96" s="25"/>
       <c r="E96" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" s="49"/>
+        <v>119</v>
+      </c>
+      <c r="F96" s="70"/>
     </row>
     <row r="97" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A97" s="51"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="70"/>
       <c r="C97" s="26"/>
       <c r="D97" s="25"/>
       <c r="E97" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" s="49"/>
+        <v>120</v>
+      </c>
+      <c r="F97" s="70"/>
     </row>
     <row r="98" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="70"/>
+    </row>
+    <row r="99" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A99" s="65"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="70"/>
+    </row>
+    <row r="100" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A100" s="65"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="70"/>
+    </row>
+    <row r="101" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A101" s="65"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="70"/>
+    </row>
+    <row r="102" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A102" s="65"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" s="70"/>
+    </row>
+    <row r="103" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A103" s="65"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="70"/>
+    </row>
+    <row r="104" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A104" s="66"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="70"/>
+    </row>
+    <row r="105" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A36:A97"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="B53:B63"/>
+  <mergeCells count="22">
+    <mergeCell ref="A54:A104"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="F82:F104"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B82:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="B54:B70"/>
+    <mergeCell ref="B71:B81"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="F64:F97"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B64:B77"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="A15:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B15:B34"/>
+    <mergeCell ref="F25:F34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3640,11 +4376,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IU10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="12" customWidth="1"/>
+    <col min="7" max="255" width="9" style="12" customWidth="1"/>
+    <col min="256" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.05" customHeight="1">
+      <c r="A1" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A3" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A7" s="60"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="14.4">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A20"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -3660,248 +4544,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="A1" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.4">
+      <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4">
-      <c r="A3" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="14.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.4">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="14.4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
-        <v>142</v>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="14.4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="27.6">
       <c r="A8" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>144</v>
+      <c r="A10" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>137</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="25"/>
       <c r="D11" s="28"/>
       <c r="E11" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="25"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="25"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="25"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="31.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="31" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
-        <v>154</v>
+      <c r="A17" s="77"/>
+      <c r="B17" s="79" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="25"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="15.6">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
-        <v>157</v>
+      <c r="A19" s="77"/>
+      <c r="B19" s="79" t="s">
+        <v>150</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15.6">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="25"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F20" s="30"/>
     </row>
@@ -3926,13 +4810,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -3947,74 +4831,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="30" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="A1" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:254" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:254" ht="13.5" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:254" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:254" s="22" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="33" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="1"/>
@@ -4279,12 +5163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV117"/>
+  <dimension ref="A1:IV135"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B97"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4299,1464 +5183,3700 @@
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:256" ht="30" customHeight="1">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.05" customHeight="1">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="84"/>
+    </row>
+    <row r="2" spans="1:256" ht="25.05" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
+    </row>
+    <row r="3" spans="1:256" s="22" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A3" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="1"/>
+      <c r="IV3" s="1"/>
+    </row>
+    <row r="4" spans="1:256" s="22" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A4" s="91"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
+      <c r="EY4" s="1"/>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1"/>
+      <c r="FB4" s="1"/>
+      <c r="FC4" s="1"/>
+      <c r="FD4" s="1"/>
+      <c r="FE4" s="1"/>
+      <c r="FF4" s="1"/>
+      <c r="FG4" s="1"/>
+      <c r="FH4" s="1"/>
+      <c r="FI4" s="1"/>
+      <c r="FJ4" s="1"/>
+      <c r="FK4" s="1"/>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1"/>
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+      <c r="FZ4" s="1"/>
+      <c r="GA4" s="1"/>
+      <c r="GB4" s="1"/>
+      <c r="GC4" s="1"/>
+      <c r="GD4" s="1"/>
+      <c r="GE4" s="1"/>
+      <c r="GF4" s="1"/>
+      <c r="GG4" s="1"/>
+      <c r="GH4" s="1"/>
+      <c r="GI4" s="1"/>
+      <c r="GJ4" s="1"/>
+      <c r="GK4" s="1"/>
+      <c r="GL4" s="1"/>
+      <c r="GM4" s="1"/>
+      <c r="GN4" s="1"/>
+      <c r="GO4" s="1"/>
+      <c r="GP4" s="1"/>
+      <c r="GQ4" s="1"/>
+      <c r="GR4" s="1"/>
+      <c r="GS4" s="1"/>
+      <c r="GT4" s="1"/>
+      <c r="GU4" s="1"/>
+      <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
+      <c r="GY4" s="1"/>
+      <c r="GZ4" s="1"/>
+      <c r="HA4" s="1"/>
+      <c r="HB4" s="1"/>
+      <c r="HC4" s="1"/>
+      <c r="HD4" s="1"/>
+      <c r="HE4" s="1"/>
+      <c r="HF4" s="1"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="1"/>
+      <c r="HM4" s="1"/>
+      <c r="HN4" s="1"/>
+      <c r="HO4" s="1"/>
+      <c r="HP4" s="1"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="1"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
+      <c r="HY4" s="1"/>
+      <c r="HZ4" s="1"/>
+      <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
+      <c r="ID4" s="1"/>
+      <c r="IE4" s="1"/>
+      <c r="IF4" s="1"/>
+      <c r="IG4" s="1"/>
+      <c r="IH4" s="1"/>
+      <c r="II4" s="1"/>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1"/>
+      <c r="IM4" s="1"/>
+      <c r="IN4" s="1"/>
+      <c r="IO4" s="1"/>
+      <c r="IP4" s="1"/>
+      <c r="IQ4" s="1"/>
+      <c r="IR4" s="1"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
+      <c r="IU4" s="1"/>
+      <c r="IV4" s="1"/>
+    </row>
+    <row r="5" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A5" s="91"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A6" s="91"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A7" s="91"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A13" s="91"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A14" s="91"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="C15" s="62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A3" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A16" s="91"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A17" s="91"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="91"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="91"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="91"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="5" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="5" t="s">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="91"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="5" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A25" s="91"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A27" s="91"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A28" s="91"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="62"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="62"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A31" s="91"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="62"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="62"/>
+    </row>
+    <row r="33" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A33" s="91"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="62"/>
+    </row>
+    <row r="34" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A34" s="91"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="62"/>
+    </row>
+    <row r="35" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A35" s="91"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A40" s="91"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="5" t="s">
+    </row>
+    <row r="41" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="5" t="s">
+      <c r="C41" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="D41" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="48"/>
+    </row>
+    <row r="42" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A42" s="91"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="48"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
+      <c r="DA42" s="1"/>
+      <c r="DB42" s="1"/>
+      <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
+      <c r="DE42" s="1"/>
+      <c r="DF42" s="1"/>
+      <c r="DG42" s="1"/>
+      <c r="DH42" s="1"/>
+      <c r="DI42" s="1"/>
+      <c r="DJ42" s="1"/>
+      <c r="DK42" s="1"/>
+      <c r="DL42" s="1"/>
+      <c r="DM42" s="1"/>
+      <c r="DN42" s="1"/>
+      <c r="DO42" s="1"/>
+      <c r="DP42" s="1"/>
+      <c r="DQ42" s="1"/>
+      <c r="DR42" s="1"/>
+      <c r="DS42" s="1"/>
+      <c r="DT42" s="1"/>
+      <c r="DU42" s="1"/>
+      <c r="DV42" s="1"/>
+      <c r="DW42" s="1"/>
+      <c r="DX42" s="1"/>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
+      <c r="EA42" s="1"/>
+      <c r="EB42" s="1"/>
+      <c r="EC42" s="1"/>
+      <c r="ED42" s="1"/>
+      <c r="EE42" s="1"/>
+      <c r="EF42" s="1"/>
+      <c r="EG42" s="1"/>
+      <c r="EH42" s="1"/>
+      <c r="EI42" s="1"/>
+      <c r="EJ42" s="1"/>
+      <c r="EK42" s="1"/>
+      <c r="EL42" s="1"/>
+      <c r="EM42" s="1"/>
+      <c r="EN42" s="1"/>
+      <c r="EO42" s="1"/>
+      <c r="EP42" s="1"/>
+      <c r="EQ42" s="1"/>
+      <c r="ER42" s="1"/>
+      <c r="ES42" s="1"/>
+      <c r="ET42" s="1"/>
+      <c r="EU42" s="1"/>
+      <c r="EV42" s="1"/>
+      <c r="EW42" s="1"/>
+      <c r="EX42" s="1"/>
+      <c r="EY42" s="1"/>
+      <c r="EZ42" s="1"/>
+      <c r="FA42" s="1"/>
+      <c r="FB42" s="1"/>
+      <c r="FC42" s="1"/>
+      <c r="FD42" s="1"/>
+      <c r="FE42" s="1"/>
+      <c r="FF42" s="1"/>
+      <c r="FG42" s="1"/>
+      <c r="FH42" s="1"/>
+      <c r="FI42" s="1"/>
+      <c r="FJ42" s="1"/>
+      <c r="FK42" s="1"/>
+      <c r="FL42" s="1"/>
+      <c r="FM42" s="1"/>
+      <c r="FN42" s="1"/>
+      <c r="FO42" s="1"/>
+      <c r="FP42" s="1"/>
+      <c r="FQ42" s="1"/>
+      <c r="FR42" s="1"/>
+      <c r="FS42" s="1"/>
+      <c r="FT42" s="1"/>
+      <c r="FU42" s="1"/>
+      <c r="FV42" s="1"/>
+      <c r="FW42" s="1"/>
+      <c r="FX42" s="1"/>
+      <c r="FY42" s="1"/>
+      <c r="FZ42" s="1"/>
+      <c r="GA42" s="1"/>
+      <c r="GB42" s="1"/>
+      <c r="GC42" s="1"/>
+      <c r="GD42" s="1"/>
+      <c r="GE42" s="1"/>
+      <c r="GF42" s="1"/>
+      <c r="GG42" s="1"/>
+      <c r="GH42" s="1"/>
+      <c r="GI42" s="1"/>
+      <c r="GJ42" s="1"/>
+      <c r="GK42" s="1"/>
+      <c r="GL42" s="1"/>
+      <c r="GM42" s="1"/>
+      <c r="GN42" s="1"/>
+      <c r="GO42" s="1"/>
+      <c r="GP42" s="1"/>
+      <c r="GQ42" s="1"/>
+      <c r="GR42" s="1"/>
+      <c r="GS42" s="1"/>
+      <c r="GT42" s="1"/>
+      <c r="GU42" s="1"/>
+      <c r="GV42" s="1"/>
+      <c r="GW42" s="1"/>
+      <c r="GX42" s="1"/>
+      <c r="GY42" s="1"/>
+      <c r="GZ42" s="1"/>
+      <c r="HA42" s="1"/>
+      <c r="HB42" s="1"/>
+      <c r="HC42" s="1"/>
+      <c r="HD42" s="1"/>
+      <c r="HE42" s="1"/>
+      <c r="HF42" s="1"/>
+      <c r="HG42" s="1"/>
+      <c r="HH42" s="1"/>
+      <c r="HI42" s="1"/>
+      <c r="HJ42" s="1"/>
+      <c r="HK42" s="1"/>
+      <c r="HL42" s="1"/>
+      <c r="HM42" s="1"/>
+      <c r="HN42" s="1"/>
+      <c r="HO42" s="1"/>
+      <c r="HP42" s="1"/>
+      <c r="HQ42" s="1"/>
+      <c r="HR42" s="1"/>
+      <c r="HS42" s="1"/>
+      <c r="HT42" s="1"/>
+      <c r="HU42" s="1"/>
+      <c r="HV42" s="1"/>
+      <c r="HW42" s="1"/>
+      <c r="HX42" s="1"/>
+      <c r="HY42" s="1"/>
+      <c r="HZ42" s="1"/>
+      <c r="IA42" s="1"/>
+      <c r="IB42" s="1"/>
+      <c r="IC42" s="1"/>
+      <c r="ID42" s="1"/>
+      <c r="IE42" s="1"/>
+      <c r="IF42" s="1"/>
+      <c r="IG42" s="1"/>
+      <c r="IH42" s="1"/>
+      <c r="II42" s="1"/>
+      <c r="IJ42" s="1"/>
+      <c r="IK42" s="1"/>
+      <c r="IL42" s="1"/>
+      <c r="IM42" s="1"/>
+      <c r="IN42" s="1"/>
+      <c r="IO42" s="1"/>
+      <c r="IP42" s="1"/>
+      <c r="IQ42" s="1"/>
+      <c r="IR42" s="1"/>
+      <c r="IS42" s="1"/>
+      <c r="IT42" s="1"/>
+      <c r="IU42" s="1"/>
+      <c r="IV42" s="1"/>
+    </row>
+    <row r="43" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A43" s="91"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+    </row>
+    <row r="44" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="91"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
+      <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
+      <c r="DE44" s="1"/>
+      <c r="DF44" s="1"/>
+      <c r="DG44" s="1"/>
+      <c r="DH44" s="1"/>
+      <c r="DI44" s="1"/>
+      <c r="DJ44" s="1"/>
+      <c r="DK44" s="1"/>
+      <c r="DL44" s="1"/>
+      <c r="DM44" s="1"/>
+      <c r="DN44" s="1"/>
+      <c r="DO44" s="1"/>
+      <c r="DP44" s="1"/>
+      <c r="DQ44" s="1"/>
+      <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
+      <c r="DT44" s="1"/>
+      <c r="DU44" s="1"/>
+      <c r="DV44" s="1"/>
+      <c r="DW44" s="1"/>
+      <c r="DX44" s="1"/>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
+      <c r="EA44" s="1"/>
+      <c r="EB44" s="1"/>
+      <c r="EC44" s="1"/>
+      <c r="ED44" s="1"/>
+      <c r="EE44" s="1"/>
+      <c r="EF44" s="1"/>
+      <c r="EG44" s="1"/>
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+      <c r="EZ44" s="1"/>
+      <c r="FA44" s="1"/>
+      <c r="FB44" s="1"/>
+      <c r="FC44" s="1"/>
+      <c r="FD44" s="1"/>
+      <c r="FE44" s="1"/>
+      <c r="FF44" s="1"/>
+      <c r="FG44" s="1"/>
+      <c r="FH44" s="1"/>
+      <c r="FI44" s="1"/>
+      <c r="FJ44" s="1"/>
+      <c r="FK44" s="1"/>
+      <c r="FL44" s="1"/>
+      <c r="FM44" s="1"/>
+      <c r="FN44" s="1"/>
+      <c r="FO44" s="1"/>
+      <c r="FP44" s="1"/>
+      <c r="FQ44" s="1"/>
+      <c r="FR44" s="1"/>
+      <c r="FS44" s="1"/>
+      <c r="FT44" s="1"/>
+      <c r="FU44" s="1"/>
+      <c r="FV44" s="1"/>
+      <c r="FW44" s="1"/>
+      <c r="FX44" s="1"/>
+      <c r="FY44" s="1"/>
+      <c r="FZ44" s="1"/>
+      <c r="GA44" s="1"/>
+      <c r="GB44" s="1"/>
+      <c r="GC44" s="1"/>
+      <c r="GD44" s="1"/>
+      <c r="GE44" s="1"/>
+      <c r="GF44" s="1"/>
+      <c r="GG44" s="1"/>
+      <c r="GH44" s="1"/>
+      <c r="GI44" s="1"/>
+      <c r="GJ44" s="1"/>
+      <c r="GK44" s="1"/>
+      <c r="GL44" s="1"/>
+      <c r="GM44" s="1"/>
+      <c r="GN44" s="1"/>
+      <c r="GO44" s="1"/>
+      <c r="GP44" s="1"/>
+      <c r="GQ44" s="1"/>
+      <c r="GR44" s="1"/>
+      <c r="GS44" s="1"/>
+      <c r="GT44" s="1"/>
+      <c r="GU44" s="1"/>
+      <c r="GV44" s="1"/>
+      <c r="GW44" s="1"/>
+      <c r="GX44" s="1"/>
+      <c r="GY44" s="1"/>
+      <c r="GZ44" s="1"/>
+      <c r="HA44" s="1"/>
+      <c r="HB44" s="1"/>
+      <c r="HC44" s="1"/>
+      <c r="HD44" s="1"/>
+      <c r="HE44" s="1"/>
+      <c r="HF44" s="1"/>
+      <c r="HG44" s="1"/>
+      <c r="HH44" s="1"/>
+      <c r="HI44" s="1"/>
+      <c r="HJ44" s="1"/>
+      <c r="HK44" s="1"/>
+      <c r="HL44" s="1"/>
+      <c r="HM44" s="1"/>
+      <c r="HN44" s="1"/>
+      <c r="HO44" s="1"/>
+      <c r="HP44" s="1"/>
+      <c r="HQ44" s="1"/>
+      <c r="HR44" s="1"/>
+      <c r="HS44" s="1"/>
+      <c r="HT44" s="1"/>
+      <c r="HU44" s="1"/>
+      <c r="HV44" s="1"/>
+      <c r="HW44" s="1"/>
+      <c r="HX44" s="1"/>
+      <c r="HY44" s="1"/>
+      <c r="HZ44" s="1"/>
+      <c r="IA44" s="1"/>
+      <c r="IB44" s="1"/>
+      <c r="IC44" s="1"/>
+      <c r="ID44" s="1"/>
+      <c r="IE44" s="1"/>
+      <c r="IF44" s="1"/>
+      <c r="IG44" s="1"/>
+      <c r="IH44" s="1"/>
+      <c r="II44" s="1"/>
+      <c r="IJ44" s="1"/>
+      <c r="IK44" s="1"/>
+      <c r="IL44" s="1"/>
+      <c r="IM44" s="1"/>
+      <c r="IN44" s="1"/>
+      <c r="IO44" s="1"/>
+      <c r="IP44" s="1"/>
+      <c r="IQ44" s="1"/>
+      <c r="IR44" s="1"/>
+      <c r="IS44" s="1"/>
+      <c r="IT44" s="1"/>
+      <c r="IU44" s="1"/>
+      <c r="IV44" s="1"/>
+    </row>
+    <row r="45" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="91"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
+      <c r="DE45" s="1"/>
+      <c r="DF45" s="1"/>
+      <c r="DG45" s="1"/>
+      <c r="DH45" s="1"/>
+      <c r="DI45" s="1"/>
+      <c r="DJ45" s="1"/>
+      <c r="DK45" s="1"/>
+      <c r="DL45" s="1"/>
+      <c r="DM45" s="1"/>
+      <c r="DN45" s="1"/>
+      <c r="DO45" s="1"/>
+      <c r="DP45" s="1"/>
+      <c r="DQ45" s="1"/>
+      <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
+      <c r="DT45" s="1"/>
+      <c r="DU45" s="1"/>
+      <c r="DV45" s="1"/>
+      <c r="DW45" s="1"/>
+      <c r="DX45" s="1"/>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
+      <c r="EA45" s="1"/>
+      <c r="EB45" s="1"/>
+      <c r="EC45" s="1"/>
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+      <c r="EZ45" s="1"/>
+      <c r="FA45" s="1"/>
+      <c r="FB45" s="1"/>
+      <c r="FC45" s="1"/>
+      <c r="FD45" s="1"/>
+      <c r="FE45" s="1"/>
+      <c r="FF45" s="1"/>
+      <c r="FG45" s="1"/>
+      <c r="FH45" s="1"/>
+      <c r="FI45" s="1"/>
+      <c r="FJ45" s="1"/>
+      <c r="FK45" s="1"/>
+      <c r="FL45" s="1"/>
+      <c r="FM45" s="1"/>
+      <c r="FN45" s="1"/>
+      <c r="FO45" s="1"/>
+      <c r="FP45" s="1"/>
+      <c r="FQ45" s="1"/>
+      <c r="FR45" s="1"/>
+      <c r="FS45" s="1"/>
+      <c r="FT45" s="1"/>
+      <c r="FU45" s="1"/>
+      <c r="FV45" s="1"/>
+      <c r="FW45" s="1"/>
+      <c r="FX45" s="1"/>
+      <c r="FY45" s="1"/>
+      <c r="FZ45" s="1"/>
+      <c r="GA45" s="1"/>
+      <c r="GB45" s="1"/>
+      <c r="GC45" s="1"/>
+      <c r="GD45" s="1"/>
+      <c r="GE45" s="1"/>
+      <c r="GF45" s="1"/>
+      <c r="GG45" s="1"/>
+      <c r="GH45" s="1"/>
+      <c r="GI45" s="1"/>
+      <c r="GJ45" s="1"/>
+      <c r="GK45" s="1"/>
+      <c r="GL45" s="1"/>
+      <c r="GM45" s="1"/>
+      <c r="GN45" s="1"/>
+      <c r="GO45" s="1"/>
+      <c r="GP45" s="1"/>
+      <c r="GQ45" s="1"/>
+      <c r="GR45" s="1"/>
+      <c r="GS45" s="1"/>
+      <c r="GT45" s="1"/>
+      <c r="GU45" s="1"/>
+      <c r="GV45" s="1"/>
+      <c r="GW45" s="1"/>
+      <c r="GX45" s="1"/>
+      <c r="GY45" s="1"/>
+      <c r="GZ45" s="1"/>
+      <c r="HA45" s="1"/>
+      <c r="HB45" s="1"/>
+      <c r="HC45" s="1"/>
+      <c r="HD45" s="1"/>
+      <c r="HE45" s="1"/>
+      <c r="HF45" s="1"/>
+      <c r="HG45" s="1"/>
+      <c r="HH45" s="1"/>
+      <c r="HI45" s="1"/>
+      <c r="HJ45" s="1"/>
+      <c r="HK45" s="1"/>
+      <c r="HL45" s="1"/>
+      <c r="HM45" s="1"/>
+      <c r="HN45" s="1"/>
+      <c r="HO45" s="1"/>
+      <c r="HP45" s="1"/>
+      <c r="HQ45" s="1"/>
+      <c r="HR45" s="1"/>
+      <c r="HS45" s="1"/>
+      <c r="HT45" s="1"/>
+      <c r="HU45" s="1"/>
+      <c r="HV45" s="1"/>
+      <c r="HW45" s="1"/>
+      <c r="HX45" s="1"/>
+      <c r="HY45" s="1"/>
+      <c r="HZ45" s="1"/>
+      <c r="IA45" s="1"/>
+      <c r="IB45" s="1"/>
+      <c r="IC45" s="1"/>
+      <c r="ID45" s="1"/>
+      <c r="IE45" s="1"/>
+      <c r="IF45" s="1"/>
+      <c r="IG45" s="1"/>
+      <c r="IH45" s="1"/>
+      <c r="II45" s="1"/>
+      <c r="IJ45" s="1"/>
+      <c r="IK45" s="1"/>
+      <c r="IL45" s="1"/>
+      <c r="IM45" s="1"/>
+      <c r="IN45" s="1"/>
+      <c r="IO45" s="1"/>
+      <c r="IP45" s="1"/>
+      <c r="IQ45" s="1"/>
+      <c r="IR45" s="1"/>
+      <c r="IS45" s="1"/>
+      <c r="IT45" s="1"/>
+      <c r="IU45" s="1"/>
+      <c r="IV45" s="1"/>
+    </row>
+    <row r="46" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="91"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
+      <c r="DA46" s="1"/>
+      <c r="DB46" s="1"/>
+      <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
+      <c r="DE46" s="1"/>
+      <c r="DF46" s="1"/>
+      <c r="DG46" s="1"/>
+      <c r="DH46" s="1"/>
+      <c r="DI46" s="1"/>
+      <c r="DJ46" s="1"/>
+      <c r="DK46" s="1"/>
+      <c r="DL46" s="1"/>
+      <c r="DM46" s="1"/>
+      <c r="DN46" s="1"/>
+      <c r="DO46" s="1"/>
+      <c r="DP46" s="1"/>
+      <c r="DQ46" s="1"/>
+      <c r="DR46" s="1"/>
+      <c r="DS46" s="1"/>
+      <c r="DT46" s="1"/>
+      <c r="DU46" s="1"/>
+      <c r="DV46" s="1"/>
+      <c r="DW46" s="1"/>
+      <c r="DX46" s="1"/>
+      <c r="DY46" s="1"/>
+      <c r="DZ46" s="1"/>
+      <c r="EA46" s="1"/>
+      <c r="EB46" s="1"/>
+      <c r="EC46" s="1"/>
+      <c r="ED46" s="1"/>
+      <c r="EE46" s="1"/>
+      <c r="EF46" s="1"/>
+      <c r="EG46" s="1"/>
+      <c r="EH46" s="1"/>
+      <c r="EI46" s="1"/>
+      <c r="EJ46" s="1"/>
+      <c r="EK46" s="1"/>
+      <c r="EL46" s="1"/>
+      <c r="EM46" s="1"/>
+      <c r="EN46" s="1"/>
+      <c r="EO46" s="1"/>
+      <c r="EP46" s="1"/>
+      <c r="EQ46" s="1"/>
+      <c r="ER46" s="1"/>
+      <c r="ES46" s="1"/>
+      <c r="ET46" s="1"/>
+      <c r="EU46" s="1"/>
+      <c r="EV46" s="1"/>
+      <c r="EW46" s="1"/>
+      <c r="EX46" s="1"/>
+      <c r="EY46" s="1"/>
+      <c r="EZ46" s="1"/>
+      <c r="FA46" s="1"/>
+      <c r="FB46" s="1"/>
+      <c r="FC46" s="1"/>
+      <c r="FD46" s="1"/>
+      <c r="FE46" s="1"/>
+      <c r="FF46" s="1"/>
+      <c r="FG46" s="1"/>
+      <c r="FH46" s="1"/>
+      <c r="FI46" s="1"/>
+      <c r="FJ46" s="1"/>
+      <c r="FK46" s="1"/>
+      <c r="FL46" s="1"/>
+      <c r="FM46" s="1"/>
+      <c r="FN46" s="1"/>
+      <c r="FO46" s="1"/>
+      <c r="FP46" s="1"/>
+      <c r="FQ46" s="1"/>
+      <c r="FR46" s="1"/>
+      <c r="FS46" s="1"/>
+      <c r="FT46" s="1"/>
+      <c r="FU46" s="1"/>
+      <c r="FV46" s="1"/>
+      <c r="FW46" s="1"/>
+      <c r="FX46" s="1"/>
+      <c r="FY46" s="1"/>
+      <c r="FZ46" s="1"/>
+      <c r="GA46" s="1"/>
+      <c r="GB46" s="1"/>
+      <c r="GC46" s="1"/>
+      <c r="GD46" s="1"/>
+      <c r="GE46" s="1"/>
+      <c r="GF46" s="1"/>
+      <c r="GG46" s="1"/>
+      <c r="GH46" s="1"/>
+      <c r="GI46" s="1"/>
+      <c r="GJ46" s="1"/>
+      <c r="GK46" s="1"/>
+      <c r="GL46" s="1"/>
+      <c r="GM46" s="1"/>
+      <c r="GN46" s="1"/>
+      <c r="GO46" s="1"/>
+      <c r="GP46" s="1"/>
+      <c r="GQ46" s="1"/>
+      <c r="GR46" s="1"/>
+      <c r="GS46" s="1"/>
+      <c r="GT46" s="1"/>
+      <c r="GU46" s="1"/>
+      <c r="GV46" s="1"/>
+      <c r="GW46" s="1"/>
+      <c r="GX46" s="1"/>
+      <c r="GY46" s="1"/>
+      <c r="GZ46" s="1"/>
+      <c r="HA46" s="1"/>
+      <c r="HB46" s="1"/>
+      <c r="HC46" s="1"/>
+      <c r="HD46" s="1"/>
+      <c r="HE46" s="1"/>
+      <c r="HF46" s="1"/>
+      <c r="HG46" s="1"/>
+      <c r="HH46" s="1"/>
+      <c r="HI46" s="1"/>
+      <c r="HJ46" s="1"/>
+      <c r="HK46" s="1"/>
+      <c r="HL46" s="1"/>
+      <c r="HM46" s="1"/>
+      <c r="HN46" s="1"/>
+      <c r="HO46" s="1"/>
+      <c r="HP46" s="1"/>
+      <c r="HQ46" s="1"/>
+      <c r="HR46" s="1"/>
+      <c r="HS46" s="1"/>
+      <c r="HT46" s="1"/>
+      <c r="HU46" s="1"/>
+      <c r="HV46" s="1"/>
+      <c r="HW46" s="1"/>
+      <c r="HX46" s="1"/>
+      <c r="HY46" s="1"/>
+      <c r="HZ46" s="1"/>
+      <c r="IA46" s="1"/>
+      <c r="IB46" s="1"/>
+      <c r="IC46" s="1"/>
+      <c r="ID46" s="1"/>
+      <c r="IE46" s="1"/>
+      <c r="IF46" s="1"/>
+      <c r="IG46" s="1"/>
+      <c r="IH46" s="1"/>
+      <c r="II46" s="1"/>
+      <c r="IJ46" s="1"/>
+      <c r="IK46" s="1"/>
+      <c r="IL46" s="1"/>
+      <c r="IM46" s="1"/>
+      <c r="IN46" s="1"/>
+      <c r="IO46" s="1"/>
+      <c r="IP46" s="1"/>
+      <c r="IQ46" s="1"/>
+      <c r="IR46" s="1"/>
+      <c r="IS46" s="1"/>
+      <c r="IT46" s="1"/>
+      <c r="IU46" s="1"/>
+      <c r="IV46" s="1"/>
+    </row>
+    <row r="47" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A47" s="91"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A48" s="91"/>
+      <c r="B48" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="C48" s="62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="50" t="s">
+      <c r="D48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="6" t="s">
+    </row>
+    <row r="49" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="91"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="48"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+      <c r="DF49" s="1"/>
+      <c r="DG49" s="1"/>
+      <c r="DH49" s="1"/>
+      <c r="DI49" s="1"/>
+      <c r="DJ49" s="1"/>
+      <c r="DK49" s="1"/>
+      <c r="DL49" s="1"/>
+      <c r="DM49" s="1"/>
+      <c r="DN49" s="1"/>
+      <c r="DO49" s="1"/>
+      <c r="DP49" s="1"/>
+      <c r="DQ49" s="1"/>
+      <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
+      <c r="DT49" s="1"/>
+      <c r="DU49" s="1"/>
+      <c r="DV49" s="1"/>
+      <c r="DW49" s="1"/>
+      <c r="DX49" s="1"/>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
+      <c r="EA49" s="1"/>
+      <c r="EB49" s="1"/>
+      <c r="EC49" s="1"/>
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+      <c r="EZ49" s="1"/>
+      <c r="FA49" s="1"/>
+      <c r="FB49" s="1"/>
+      <c r="FC49" s="1"/>
+      <c r="FD49" s="1"/>
+      <c r="FE49" s="1"/>
+      <c r="FF49" s="1"/>
+      <c r="FG49" s="1"/>
+      <c r="FH49" s="1"/>
+      <c r="FI49" s="1"/>
+      <c r="FJ49" s="1"/>
+      <c r="FK49" s="1"/>
+      <c r="FL49" s="1"/>
+      <c r="FM49" s="1"/>
+      <c r="FN49" s="1"/>
+      <c r="FO49" s="1"/>
+      <c r="FP49" s="1"/>
+      <c r="FQ49" s="1"/>
+      <c r="FR49" s="1"/>
+      <c r="FS49" s="1"/>
+      <c r="FT49" s="1"/>
+      <c r="FU49" s="1"/>
+      <c r="FV49" s="1"/>
+      <c r="FW49" s="1"/>
+      <c r="FX49" s="1"/>
+      <c r="FY49" s="1"/>
+      <c r="FZ49" s="1"/>
+      <c r="GA49" s="1"/>
+      <c r="GB49" s="1"/>
+      <c r="GC49" s="1"/>
+      <c r="GD49" s="1"/>
+      <c r="GE49" s="1"/>
+      <c r="GF49" s="1"/>
+      <c r="GG49" s="1"/>
+      <c r="GH49" s="1"/>
+      <c r="GI49" s="1"/>
+      <c r="GJ49" s="1"/>
+      <c r="GK49" s="1"/>
+      <c r="GL49" s="1"/>
+      <c r="GM49" s="1"/>
+      <c r="GN49" s="1"/>
+      <c r="GO49" s="1"/>
+      <c r="GP49" s="1"/>
+      <c r="GQ49" s="1"/>
+      <c r="GR49" s="1"/>
+      <c r="GS49" s="1"/>
+      <c r="GT49" s="1"/>
+      <c r="GU49" s="1"/>
+      <c r="GV49" s="1"/>
+      <c r="GW49" s="1"/>
+      <c r="GX49" s="1"/>
+      <c r="GY49" s="1"/>
+      <c r="GZ49" s="1"/>
+      <c r="HA49" s="1"/>
+      <c r="HB49" s="1"/>
+      <c r="HC49" s="1"/>
+      <c r="HD49" s="1"/>
+      <c r="HE49" s="1"/>
+      <c r="HF49" s="1"/>
+      <c r="HG49" s="1"/>
+      <c r="HH49" s="1"/>
+      <c r="HI49" s="1"/>
+      <c r="HJ49" s="1"/>
+      <c r="HK49" s="1"/>
+      <c r="HL49" s="1"/>
+      <c r="HM49" s="1"/>
+      <c r="HN49" s="1"/>
+      <c r="HO49" s="1"/>
+      <c r="HP49" s="1"/>
+      <c r="HQ49" s="1"/>
+      <c r="HR49" s="1"/>
+      <c r="HS49" s="1"/>
+      <c r="HT49" s="1"/>
+      <c r="HU49" s="1"/>
+      <c r="HV49" s="1"/>
+      <c r="HW49" s="1"/>
+      <c r="HX49" s="1"/>
+      <c r="HY49" s="1"/>
+      <c r="HZ49" s="1"/>
+      <c r="IA49" s="1"/>
+      <c r="IB49" s="1"/>
+      <c r="IC49" s="1"/>
+      <c r="ID49" s="1"/>
+      <c r="IE49" s="1"/>
+      <c r="IF49" s="1"/>
+      <c r="IG49" s="1"/>
+      <c r="IH49" s="1"/>
+      <c r="II49" s="1"/>
+      <c r="IJ49" s="1"/>
+      <c r="IK49" s="1"/>
+      <c r="IL49" s="1"/>
+      <c r="IM49" s="1"/>
+      <c r="IN49" s="1"/>
+      <c r="IO49" s="1"/>
+      <c r="IP49" s="1"/>
+      <c r="IQ49" s="1"/>
+      <c r="IR49" s="1"/>
+      <c r="IS49" s="1"/>
+      <c r="IT49" s="1"/>
+      <c r="IU49" s="1"/>
+      <c r="IV49" s="1"/>
+    </row>
+    <row r="50" spans="1:256" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="91"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="48"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1"/>
+      <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
+      <c r="DB50" s="1"/>
+      <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
+      <c r="DE50" s="1"/>
+      <c r="DF50" s="1"/>
+      <c r="DG50" s="1"/>
+      <c r="DH50" s="1"/>
+      <c r="DI50" s="1"/>
+      <c r="DJ50" s="1"/>
+      <c r="DK50" s="1"/>
+      <c r="DL50" s="1"/>
+      <c r="DM50" s="1"/>
+      <c r="DN50" s="1"/>
+      <c r="DO50" s="1"/>
+      <c r="DP50" s="1"/>
+      <c r="DQ50" s="1"/>
+      <c r="DR50" s="1"/>
+      <c r="DS50" s="1"/>
+      <c r="DT50" s="1"/>
+      <c r="DU50" s="1"/>
+      <c r="DV50" s="1"/>
+      <c r="DW50" s="1"/>
+      <c r="DX50" s="1"/>
+      <c r="DY50" s="1"/>
+      <c r="DZ50" s="1"/>
+      <c r="EA50" s="1"/>
+      <c r="EB50" s="1"/>
+      <c r="EC50" s="1"/>
+      <c r="ED50" s="1"/>
+      <c r="EE50" s="1"/>
+      <c r="EF50" s="1"/>
+      <c r="EG50" s="1"/>
+      <c r="EH50" s="1"/>
+      <c r="EI50" s="1"/>
+      <c r="EJ50" s="1"/>
+      <c r="EK50" s="1"/>
+      <c r="EL50" s="1"/>
+      <c r="EM50" s="1"/>
+      <c r="EN50" s="1"/>
+      <c r="EO50" s="1"/>
+      <c r="EP50" s="1"/>
+      <c r="EQ50" s="1"/>
+      <c r="ER50" s="1"/>
+      <c r="ES50" s="1"/>
+      <c r="ET50" s="1"/>
+      <c r="EU50" s="1"/>
+      <c r="EV50" s="1"/>
+      <c r="EW50" s="1"/>
+      <c r="EX50" s="1"/>
+      <c r="EY50" s="1"/>
+      <c r="EZ50" s="1"/>
+      <c r="FA50" s="1"/>
+      <c r="FB50" s="1"/>
+      <c r="FC50" s="1"/>
+      <c r="FD50" s="1"/>
+      <c r="FE50" s="1"/>
+      <c r="FF50" s="1"/>
+      <c r="FG50" s="1"/>
+      <c r="FH50" s="1"/>
+      <c r="FI50" s="1"/>
+      <c r="FJ50" s="1"/>
+      <c r="FK50" s="1"/>
+      <c r="FL50" s="1"/>
+      <c r="FM50" s="1"/>
+      <c r="FN50" s="1"/>
+      <c r="FO50" s="1"/>
+      <c r="FP50" s="1"/>
+      <c r="FQ50" s="1"/>
+      <c r="FR50" s="1"/>
+      <c r="FS50" s="1"/>
+      <c r="FT50" s="1"/>
+      <c r="FU50" s="1"/>
+      <c r="FV50" s="1"/>
+      <c r="FW50" s="1"/>
+      <c r="FX50" s="1"/>
+      <c r="FY50" s="1"/>
+      <c r="FZ50" s="1"/>
+      <c r="GA50" s="1"/>
+      <c r="GB50" s="1"/>
+      <c r="GC50" s="1"/>
+      <c r="GD50" s="1"/>
+      <c r="GE50" s="1"/>
+      <c r="GF50" s="1"/>
+      <c r="GG50" s="1"/>
+      <c r="GH50" s="1"/>
+      <c r="GI50" s="1"/>
+      <c r="GJ50" s="1"/>
+      <c r="GK50" s="1"/>
+      <c r="GL50" s="1"/>
+      <c r="GM50" s="1"/>
+      <c r="GN50" s="1"/>
+      <c r="GO50" s="1"/>
+      <c r="GP50" s="1"/>
+      <c r="GQ50" s="1"/>
+      <c r="GR50" s="1"/>
+      <c r="GS50" s="1"/>
+      <c r="GT50" s="1"/>
+      <c r="GU50" s="1"/>
+      <c r="GV50" s="1"/>
+      <c r="GW50" s="1"/>
+      <c r="GX50" s="1"/>
+      <c r="GY50" s="1"/>
+      <c r="GZ50" s="1"/>
+      <c r="HA50" s="1"/>
+      <c r="HB50" s="1"/>
+      <c r="HC50" s="1"/>
+      <c r="HD50" s="1"/>
+      <c r="HE50" s="1"/>
+      <c r="HF50" s="1"/>
+      <c r="HG50" s="1"/>
+      <c r="HH50" s="1"/>
+      <c r="HI50" s="1"/>
+      <c r="HJ50" s="1"/>
+      <c r="HK50" s="1"/>
+      <c r="HL50" s="1"/>
+      <c r="HM50" s="1"/>
+      <c r="HN50" s="1"/>
+      <c r="HO50" s="1"/>
+      <c r="HP50" s="1"/>
+      <c r="HQ50" s="1"/>
+      <c r="HR50" s="1"/>
+      <c r="HS50" s="1"/>
+      <c r="HT50" s="1"/>
+      <c r="HU50" s="1"/>
+      <c r="HV50" s="1"/>
+      <c r="HW50" s="1"/>
+      <c r="HX50" s="1"/>
+      <c r="HY50" s="1"/>
+      <c r="HZ50" s="1"/>
+      <c r="IA50" s="1"/>
+      <c r="IB50" s="1"/>
+      <c r="IC50" s="1"/>
+      <c r="ID50" s="1"/>
+      <c r="IE50" s="1"/>
+      <c r="IF50" s="1"/>
+      <c r="IG50" s="1"/>
+      <c r="IH50" s="1"/>
+      <c r="II50" s="1"/>
+      <c r="IJ50" s="1"/>
+      <c r="IK50" s="1"/>
+      <c r="IL50" s="1"/>
+      <c r="IM50" s="1"/>
+      <c r="IN50" s="1"/>
+      <c r="IO50" s="1"/>
+      <c r="IP50" s="1"/>
+      <c r="IQ50" s="1"/>
+      <c r="IR50" s="1"/>
+      <c r="IS50" s="1"/>
+      <c r="IT50" s="1"/>
+      <c r="IU50" s="1"/>
+      <c r="IV50" s="1"/>
+    </row>
+    <row r="51" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A51" s="91"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="6" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="50" t="s">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A52" s="91"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A53" s="91"/>
+      <c r="B53" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="6" t="s">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A54" s="91"/>
+      <c r="B54" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="C54" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="37"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="37"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="37"/>
       <c r="F54" s="6" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G54" s="37"/>
     </row>
-    <row r="55" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="23"/>
+    <row r="55" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A55" s="91"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="37"/>
       <c r="F55" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="23"/>
+    <row r="56" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A56" s="91"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="37"/>
       <c r="F56" s="6" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="23"/>
+    <row r="57" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A57" s="91"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="37"/>
       <c r="F57" s="6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G57" s="37"/>
     </row>
-    <row r="58" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="23"/>
+    <row r="58" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A58" s="91"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="37"/>
       <c r="F58" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G58" s="37"/>
     </row>
-    <row r="59" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="23"/>
+    <row r="59" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A59" s="91"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="37"/>
       <c r="F59" s="6" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G59" s="37"/>
     </row>
-    <row r="60" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="23"/>
+    <row r="60" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A60" s="91"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="37"/>
       <c r="F60" s="6" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G60" s="37"/>
     </row>
-    <row r="61" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="23"/>
+    <row r="61" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A61" s="91"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="37"/>
       <c r="F61" s="6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G61" s="37"/>
     </row>
-    <row r="62" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="23"/>
+    <row r="62" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A62" s="91"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="37"/>
       <c r="F62" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G62" s="37"/>
     </row>
-    <row r="63" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="23"/>
+    <row r="63" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A63" s="91"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="37"/>
       <c r="F63" s="6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G63" s="37"/>
     </row>
-    <row r="64" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="23"/>
+    <row r="64" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A64" s="91"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="37"/>
       <c r="F64" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>122</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G64" s="37"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="37"/>
       <c r="F65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="37"/>
       <c r="F66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" s="50"/>
+        <v>97</v>
+      </c>
+      <c r="G66" s="37"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="23"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="37"/>
       <c r="F67" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A68" s="63"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="37"/>
       <c r="F68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="50"/>
+        <v>99</v>
+      </c>
+      <c r="G68" s="37"/>
     </row>
     <row r="69" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A69" s="63"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="37"/>
       <c r="F69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="50"/>
+        <v>100</v>
+      </c>
+      <c r="G69" s="37"/>
     </row>
     <row r="70" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A70" s="63"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="37"/>
       <c r="F70" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="50"/>
+        <v>101</v>
+      </c>
+      <c r="G70" s="37"/>
     </row>
     <row r="71" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A71" s="63"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="50"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="D71" s="23"/>
       <c r="E71" s="37"/>
       <c r="F71" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="50"/>
+        <v>103</v>
+      </c>
+      <c r="G71" s="37"/>
     </row>
     <row r="72" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A72" s="63"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="23"/>
       <c r="E72" s="37"/>
       <c r="F72" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G72" s="50"/>
+        <v>104</v>
+      </c>
+      <c r="G72" s="37"/>
     </row>
     <row r="73" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A73" s="63"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="50"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="23"/>
       <c r="E73" s="37"/>
       <c r="F73" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="50"/>
+        <v>105</v>
+      </c>
+      <c r="G73" s="37"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A74" s="63"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="50"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="23"/>
       <c r="E74" s="37"/>
       <c r="F74" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="50"/>
+        <v>106</v>
+      </c>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A75" s="63"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="23"/>
       <c r="E75" s="37"/>
       <c r="F75" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="50"/>
+        <v>107</v>
+      </c>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A76" s="63"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="23"/>
       <c r="E76" s="37"/>
       <c r="F76" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="50"/>
+        <v>108</v>
+      </c>
+      <c r="G76" s="37"/>
     </row>
     <row r="77" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A77" s="63"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="50"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="23"/>
       <c r="E77" s="37"/>
       <c r="F77" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="G77" s="37"/>
     </row>
     <row r="78" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A78" s="63"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="50" t="s">
-        <v>109</v>
-      </c>
+      <c r="A78" s="91"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="23"/>
       <c r="E78" s="37"/>
       <c r="F78" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G78" s="50"/>
+      <c r="G78" s="37"/>
     </row>
     <row r="79" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A79" s="63"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="50"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="23"/>
       <c r="E79" s="37"/>
       <c r="F79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="37"/>
     </row>
     <row r="80" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A80" s="63"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="50"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="23"/>
       <c r="E80" s="37"/>
       <c r="F80" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="37"/>
     </row>
     <row r="81" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A81" s="63"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="50"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="23"/>
       <c r="E81" s="37"/>
       <c r="F81" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G81" s="50"/>
+      <c r="G81" s="37"/>
     </row>
     <row r="82" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A82" s="63"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="50"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="62" t="s">
+        <v>51</v>
+      </c>
       <c r="D82" s="23"/>
       <c r="E82" s="37"/>
       <c r="F82" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="50"/>
+      <c r="G82" s="62" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A83" s="63"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="50"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="23"/>
       <c r="E83" s="37"/>
       <c r="F83" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G83" s="50"/>
+        <v>116</v>
+      </c>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A84" s="63"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="50"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="23"/>
       <c r="E84" s="37"/>
       <c r="F84" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="50"/>
+        <v>104</v>
+      </c>
+      <c r="G84" s="62"/>
     </row>
     <row r="85" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A85" s="63"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="50"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="23"/>
       <c r="E85" s="37"/>
       <c r="F85" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G85" s="50"/>
+      <c r="G85" s="62"/>
     </row>
     <row r="86" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A86" s="63"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="50"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="23"/>
       <c r="E86" s="37"/>
       <c r="F86" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" s="50"/>
+        <v>104</v>
+      </c>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A87" s="63"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="50"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="23"/>
       <c r="E87" s="37"/>
       <c r="F87" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G87" s="50"/>
+        <v>105</v>
+      </c>
+      <c r="G87" s="62"/>
     </row>
     <row r="88" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A88" s="63"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="50"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="23"/>
       <c r="E88" s="37"/>
       <c r="F88" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G88" s="50"/>
+        <v>106</v>
+      </c>
+      <c r="G88" s="62"/>
     </row>
     <row r="89" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A89" s="63"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="50" t="s">
-        <v>125</v>
-      </c>
+      <c r="A89" s="91"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="23"/>
       <c r="E89" s="37"/>
       <c r="F89" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G89" s="50"/>
+        <v>107</v>
+      </c>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A90" s="63"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="50"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="23"/>
       <c r="E90" s="37"/>
       <c r="F90" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" s="50"/>
+        <v>108</v>
+      </c>
+      <c r="G90" s="62"/>
     </row>
     <row r="91" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A91" s="63"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="50"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="23"/>
       <c r="E91" s="37"/>
       <c r="F91" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G91" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="G91" s="62"/>
     </row>
     <row r="92" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A92" s="63"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="50"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="23"/>
       <c r="E92" s="37"/>
       <c r="F92" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G92" s="50"/>
+        <v>110</v>
+      </c>
+      <c r="G92" s="62"/>
     </row>
     <row r="93" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A93" s="63"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="50"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="23"/>
       <c r="E93" s="37"/>
       <c r="F93" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G93" s="50"/>
+        <v>111</v>
+      </c>
+      <c r="G93" s="62"/>
     </row>
     <row r="94" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A94" s="63"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="50"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="23"/>
       <c r="E94" s="37"/>
       <c r="F94" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G94" s="50"/>
+        <v>112</v>
+      </c>
+      <c r="G94" s="62"/>
     </row>
     <row r="95" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A95" s="63"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="50"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="23"/>
       <c r="E95" s="37"/>
       <c r="F95" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G95" s="50"/>
+        <v>113</v>
+      </c>
+      <c r="G95" s="62"/>
     </row>
     <row r="96" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A96" s="63"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="50"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="62" t="s">
+        <v>102</v>
+      </c>
       <c r="D96" s="23"/>
       <c r="E96" s="37"/>
       <c r="F96" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G96" s="50"/>
+        <v>103</v>
+      </c>
+      <c r="G96" s="62"/>
     </row>
     <row r="97" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A97" s="63"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="50"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="23"/>
       <c r="E97" s="37"/>
       <c r="F97" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" s="62"/>
+    </row>
+    <row r="98" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A98" s="91"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="62"/>
+    </row>
+    <row r="99" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A99" s="91"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G99" s="62"/>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A100" s="91"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" s="62"/>
+    </row>
+    <row r="101" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A101" s="91"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="62"/>
+    </row>
+    <row r="102" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A102" s="91"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" s="62"/>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A103" s="91"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" s="62"/>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A104" s="91"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="62"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A105" s="91"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="62"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A106" s="91"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="62"/>
+    </row>
+    <row r="107" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A107" s="91"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="23"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G107" s="62"/>
+    </row>
+    <row r="108" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A108" s="91"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G108" s="62"/>
+    </row>
+    <row r="109" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A109" s="91"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G109" s="62"/>
+    </row>
+    <row r="110" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A110" s="91"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G110" s="62"/>
+    </row>
+    <row r="111" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A111" s="91"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G111" s="62"/>
+    </row>
+    <row r="112" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A112" s="91"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G112" s="62"/>
+    </row>
+    <row r="113" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A113" s="91"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G113" s="62"/>
+    </row>
+    <row r="114" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A114" s="91"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" s="62"/>
+    </row>
+    <row r="115" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" s="62"/>
+    </row>
+    <row r="116" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A116" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A117" s="86"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A118" s="86"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="50"/>
-    </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A98" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A99" s="63"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="6" t="s">
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A119" s="86"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A120" s="86"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A121" s="86"/>
+      <c r="B121" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A122" s="86"/>
+      <c r="B122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A123" s="86"/>
+      <c r="B123" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="37"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
+      <c r="G123" s="35"/>
+    </row>
+    <row r="124" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A124" s="86"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A100" s="63"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="6" t="s">
+      <c r="G124" s="35"/>
+    </row>
+    <row r="125" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A125" s="86"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
+      <c r="G125" s="35"/>
+    </row>
+    <row r="126" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A126" s="86"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="88"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="63"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50" t="s">
+      <c r="G126" s="35"/>
+    </row>
+    <row r="127" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A127" s="86"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="G127" s="35"/>
+    </row>
+    <row r="128" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A128" s="86"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="88"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A129" s="86"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="37"/>
+      <c r="E129" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F129" s="39"/>
+      <c r="G129" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A130" s="86"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="37"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G130" s="35"/>
+    </row>
+    <row r="131" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A131" s="86"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G131" s="35"/>
+    </row>
+    <row r="132" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A132" s="86"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="37"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A133" s="86"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="87"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G133" s="35"/>
+    </row>
+    <row r="134" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A134" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A102" s="63"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="63"/>
-      <c r="B103" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A104" s="63"/>
-      <c r="B104" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A105" s="63"/>
-      <c r="B105" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="37"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G105" s="35"/>
-    </row>
-    <row r="106" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A106" s="63"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G106" s="35"/>
-    </row>
-    <row r="107" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A107" s="63"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G107" s="35"/>
-    </row>
-    <row r="108" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A108" s="63"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G108" s="35"/>
-    </row>
-    <row r="109" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A109" s="63"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G109" s="35"/>
-    </row>
-    <row r="110" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A110" s="63"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110" s="35"/>
-    </row>
-    <row r="111" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A111" s="63"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F111" s="39"/>
-      <c r="G111" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A112" s="63"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" s="37"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G112" s="35"/>
-    </row>
-    <row r="113" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A113" s="63"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G113" s="35"/>
-    </row>
-    <row r="114" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A114" s="63"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G114" s="35"/>
-    </row>
-    <row r="115" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A115" s="63"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G115" s="35"/>
-    </row>
-    <row r="116" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A116" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A117" s="64"/>
-      <c r="B117" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G117" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A135" s="89"/>
+      <c r="B135" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G135" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
+    <mergeCell ref="C107:C115"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B54:B115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="A3:A115"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="C82:C95"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C96:C106"/>
+    <mergeCell ref="C116:C118"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A97"/>
-    <mergeCell ref="A98:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B3:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B105:B115"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C52"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="C78:C88"/>
-    <mergeCell ref="C89:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="G64:G97"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A116:A133"/>
+    <mergeCell ref="C15:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C54:C70"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="G25:G34"/>
+    <mergeCell ref="G82:G115"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="C119:C120"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
